--- a/KronoXConverter/Resources/Spreadsheets/Schedule.xlsx
+++ b/KronoXConverter/Resources/Spreadsheets/Schedule.xlsx
@@ -47,6 +47,7 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -397,19 +398,19 @@
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="7.29"/>
-    <col customWidth="1" min="3" max="3" width="3.0"/>
-    <col customWidth="1" min="4" max="4" width="8.14"/>
-    <col customWidth="1" min="5" max="5" width="6.29"/>
-    <col customWidth="1" min="6" max="6" width="16.0"/>
-    <col customWidth="1" min="7" max="7" width="12.29"/>
-    <col customWidth="1" min="8" max="8" width="3.0"/>
-    <col customWidth="1" min="9" max="9" width="35.86"/>
-    <col customWidth="1" min="10" max="10" width="19.43"/>
-    <col customWidth="1" min="11" max="11" width="3.0"/>
-    <col customWidth="1" min="12" max="13" width="7.29"/>
+    <col customWidth="1" min="1" max="2" width="6.38"/>
+    <col customWidth="1" min="3" max="3" width="2.63"/>
+    <col customWidth="1" min="4" max="4" width="7.13"/>
+    <col customWidth="1" min="5" max="5" width="5.5"/>
+    <col customWidth="1" min="6" max="6" width="14.0"/>
+    <col customWidth="1" min="7" max="7" width="15.13"/>
+    <col customWidth="1" min="8" max="8" width="2.63"/>
+    <col customWidth="1" min="9" max="9" width="31.38"/>
+    <col customWidth="1" min="10" max="10" width="17.0"/>
+    <col customWidth="1" min="11" max="11" width="2.63"/>
+    <col customWidth="1" min="12" max="13" width="6.38"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.0" customHeight="1">
@@ -420,11 +421,11 @@
       <c r="E1" s="1"/>
       <c r="F1" s="4" t="str">
         <f> TEXT(NOW(), "YYYY-MM-DD")</f>
-        <v>2022-03-12</v>
+        <v>2022-07-30</v>
       </c>
       <c r="G1" s="4" t="str">
         <f> TEXT(NOW(), "HH:MM:SS")</f>
-        <v>18:16:53</v>
+        <v>14:23:31</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="4"/>
